--- a/biology/Zoologie/Equus_francisci/Equus_francisci.xlsx
+++ b/biology/Zoologie/Equus_francisci/Equus_francisci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Equus francisci est une espèce nord-américaine éteinte de la famille des Equidae (genre qui inclut les chevaux, les ânes et les zèbres).
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, francisci, lui a été donné en l'honneur de Mark Francis, du département vétérinaire de l'université A&amp;M du Texas, à qui l'on doit la découverte de cette espèce d'équidés dans le comté de Wharton[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, francisci, lui a été donné en l'honneur de Mark Francis, du département vétérinaire de l'université A&amp;M du Texas, à qui l'on doit la découverte de cette espèce d'équidés dans le comté de Wharton.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Oliver Perry Hay, « Contributions to the knowledge of the mammals of the Pleistocene of North America », Proceedings of the United States National Museum, Washington, Inconnu, vol. 48, no 2086,‎ 1915, p. 515-575 (ISSN 0096-3801 et 2377-6560, OCLC 1259735, DOI 10.5479/SI.00963801.48-2086.515, lire en ligne)</t>
         </is>
